--- a/tut05/output/0501CS04.xlsx
+++ b/tut05/output/0501CS04.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C6" t="n">
         <v>6.75</v>
       </c>
       <c r="D6" t="n">
-        <v>5.395348837209302</v>
+        <v>5.4</v>
       </c>
       <c r="E6" t="n">
-        <v>6.063829787234043</v>
+        <v>6.06</v>
       </c>
       <c r="F6" t="n">
-        <v>5.666666666666667</v>
+        <v>5.67</v>
       </c>
       <c r="G6" t="n">
         <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>7.73170731707317</v>
+        <v>7.73</v>
       </c>
       <c r="I6" t="n">
         <v>6.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.816326530612245</v>
+        <v>6.82</v>
       </c>
       <c r="C8" t="n">
-        <v>6.78494623655914</v>
+        <v>6.78</v>
       </c>
       <c r="D8" t="n">
-        <v>6.345588235294118</v>
+        <v>6.35</v>
       </c>
       <c r="E8" t="n">
-        <v>6.273224043715847</v>
+        <v>6.27</v>
       </c>
       <c r="F8" t="n">
         <v>6.16</v>
       </c>
       <c r="G8" t="n">
-        <v>6.166037735849057</v>
+        <v>6.17</v>
       </c>
       <c r="H8" t="n">
-        <v>6.375816993464053</v>
+        <v>6.38</v>
       </c>
       <c r="I8" t="n">
-        <v>6.430635838150289</v>
+        <v>6.43</v>
       </c>
     </row>
   </sheetData>
